--- a/database/dd.xlsx
+++ b/database/dd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webstack\bill-app\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D54192-4DD2-40CD-B2A8-89BD7314CF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B089C2-AD76-4287-8E2B-2C7B4C9DF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="3765" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Farming</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2025 - 2026</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,17 +153,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +498,7 @@
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +544,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -570,6 +593,9 @@
       </c>
       <c r="O2" s="3">
         <v>45581</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
